--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Rspo2-Znrf3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Rspo2-Znrf3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Rspo2</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -546,10 +546,10 @@
         <v>5.628527</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.9891011365778073</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.9927075980877177</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.063418</v>
+        <v>0.7154376666666667</v>
       </c>
       <c r="N2">
-        <v>3.190254</v>
+        <v>2.146313</v>
       </c>
       <c r="O2">
-        <v>0.0908628824358815</v>
+        <v>0.05718859144736913</v>
       </c>
       <c r="P2">
-        <v>0.1028742253445915</v>
+        <v>0.06498002791311712</v>
       </c>
       <c r="Q2">
-        <v>1.995158975095333</v>
+        <v>1.342286741216778</v>
       </c>
       <c r="R2">
-        <v>17.956430775858</v>
+        <v>12.080580670951</v>
       </c>
       <c r="S2">
-        <v>0.0908628824358815</v>
+        <v>0.05656530079987668</v>
       </c>
       <c r="T2">
-        <v>0.1028742253445915</v>
+        <v>0.06450616743330334</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +608,10 @@
         <v>5.628527</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.9891011365778073</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.9927075980877177</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.853215333333334</v>
+        <v>1.853215333333333</v>
       </c>
       <c r="N3">
-        <v>5.559646000000001</v>
+        <v>5.559646</v>
       </c>
       <c r="O3">
-        <v>0.1583464704951766</v>
+        <v>0.1481369789429594</v>
       </c>
       <c r="P3">
-        <v>0.1792786014656379</v>
+        <v>0.1683193235409048</v>
       </c>
       <c r="Q3">
-        <v>3.476957513493556</v>
+        <v>3.476957513493555</v>
       </c>
       <c r="R3">
-        <v>31.29261762144201</v>
+        <v>31.292617621442</v>
       </c>
       <c r="S3">
-        <v>0.1583464704951766</v>
+        <v>0.1465224542416838</v>
       </c>
       <c r="T3">
-        <v>0.1792786014656379</v>
+        <v>0.167091871384041</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -670,10 +670,10 @@
         <v>5.628527</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.9891011365778073</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.9927075980877177</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.214728</v>
+        <v>2.352629</v>
       </c>
       <c r="N4">
-        <v>6.644184</v>
+        <v>7.057887</v>
       </c>
       <c r="O4">
-        <v>0.1892356250237018</v>
+        <v>0.1880576673228452</v>
       </c>
       <c r="P4">
-        <v>0.2142510540060226</v>
+        <v>0.2136788503203524</v>
       </c>
       <c r="Q4">
-        <v>4.155218781885333</v>
+        <v>4.413945282494333</v>
       </c>
       <c r="R4">
-        <v>37.396969036968</v>
+        <v>39.725507542449</v>
       </c>
       <c r="S4">
-        <v>0.1892356250237018</v>
+        <v>0.1860080524911973</v>
       </c>
       <c r="T4">
-        <v>0.2142510540060226</v>
+        <v>0.2121206182636619</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -732,10 +732,10 @@
         <v>5.628527</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.9891011365778073</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.9927075980877177</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.0994325</v>
+        <v>4.500090999999999</v>
       </c>
       <c r="N5">
-        <v>8.198865</v>
+        <v>9.000181999999999</v>
       </c>
       <c r="O5">
-        <v>0.3502726616451215</v>
+        <v>0.3597152871109425</v>
       </c>
       <c r="P5">
-        <v>0.2643839285460921</v>
+        <v>0.2724821950867064</v>
       </c>
       <c r="Q5">
-        <v>7.6912555036425</v>
+        <v>8.442961231985665</v>
       </c>
       <c r="R5">
-        <v>46.147533021855</v>
+        <v>50.65776739191399</v>
       </c>
       <c r="S5">
-        <v>0.3502726616451215</v>
+        <v>0.3557947993258455</v>
       </c>
       <c r="T5">
-        <v>0.2643839285460921</v>
+        <v>0.2704951454061932</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -794,10 +794,10 @@
         <v>5.628527</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.9891011365778073</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.9927075980877177</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,338 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.472753</v>
+        <v>3.088773666666667</v>
       </c>
       <c r="N6">
-        <v>7.418259000000001</v>
+        <v>9.266321</v>
       </c>
       <c r="O6">
-        <v>0.2112823604001186</v>
+        <v>0.2469014751758839</v>
       </c>
       <c r="P6">
-        <v>0.239212190637656</v>
+        <v>0.2805396031389193</v>
       </c>
       <c r="Q6">
-        <v>4.639319008277001</v>
+        <v>5.795081993240777</v>
       </c>
       <c r="R6">
-        <v>41.75387107449301</v>
+        <v>52.155737939167</v>
       </c>
       <c r="S6">
-        <v>0.2112823604001186</v>
+        <v>0.244210529719204</v>
       </c>
       <c r="T6">
-        <v>0.239212190637656</v>
+        <v>0.2784937956005181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.0206735</v>
+      </c>
+      <c r="H7">
+        <v>0.041347</v>
+      </c>
+      <c r="I7">
+        <v>0.01089886342219268</v>
+      </c>
+      <c r="J7">
+        <v>0.007292401912282354</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.7154376666666667</v>
+      </c>
+      <c r="N7">
+        <v>2.146313</v>
+      </c>
+      <c r="O7">
+        <v>0.05718859144736913</v>
+      </c>
+      <c r="P7">
+        <v>0.06498002791311712</v>
+      </c>
+      <c r="Q7">
+        <v>0.01479060060183334</v>
+      </c>
+      <c r="R7">
+        <v>0.088743603611</v>
+      </c>
+      <c r="S7">
+        <v>0.0006232906474924525</v>
+      </c>
+      <c r="T7">
+        <v>0.0004738604798137761</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>0.0206735</v>
+      </c>
+      <c r="H8">
+        <v>0.041347</v>
+      </c>
+      <c r="I8">
+        <v>0.01089886342219268</v>
+      </c>
+      <c r="J8">
+        <v>0.007292401912282354</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.853215333333333</v>
+      </c>
+      <c r="N8">
+        <v>5.559646</v>
+      </c>
+      <c r="O8">
+        <v>0.1481369789429594</v>
+      </c>
+      <c r="P8">
+        <v>0.1683193235409048</v>
+      </c>
+      <c r="Q8">
+        <v>0.03831244719366667</v>
+      </c>
+      <c r="R8">
+        <v>0.229874683162</v>
+      </c>
+      <c r="S8">
+        <v>0.001614524701275547</v>
+      </c>
+      <c r="T8">
+        <v>0.001227452156863766</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <v>0.0206735</v>
+      </c>
+      <c r="H9">
+        <v>0.041347</v>
+      </c>
+      <c r="I9">
+        <v>0.01089886342219268</v>
+      </c>
+      <c r="J9">
+        <v>0.007292401912282354</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.352629</v>
+      </c>
+      <c r="N9">
+        <v>7.057887</v>
+      </c>
+      <c r="O9">
+        <v>0.1880576673228452</v>
+      </c>
+      <c r="P9">
+        <v>0.2136788503203524</v>
+      </c>
+      <c r="Q9">
+        <v>0.0486370756315</v>
+      </c>
+      <c r="R9">
+        <v>0.291822453789</v>
+      </c>
+      <c r="S9">
+        <v>0.002049614831647836</v>
+      </c>
+      <c r="T9">
+        <v>0.001558232056690432</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.5</v>
+      </c>
+      <c r="G10">
+        <v>0.0206735</v>
+      </c>
+      <c r="H10">
+        <v>0.041347</v>
+      </c>
+      <c r="I10">
+        <v>0.01089886342219268</v>
+      </c>
+      <c r="J10">
+        <v>0.007292401912282354</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>4.500090999999999</v>
+      </c>
+      <c r="N10">
+        <v>9.000181999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.3597152871109425</v>
+      </c>
+      <c r="P10">
+        <v>0.2724821950867064</v>
+      </c>
+      <c r="Q10">
+        <v>0.09303263128849999</v>
+      </c>
+      <c r="R10">
+        <v>0.372130525154</v>
+      </c>
+      <c r="S10">
+        <v>0.003920487785096989</v>
+      </c>
+      <c r="T10">
+        <v>0.001987049680513191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.5</v>
+      </c>
+      <c r="G11">
+        <v>0.0206735</v>
+      </c>
+      <c r="H11">
+        <v>0.041347</v>
+      </c>
+      <c r="I11">
+        <v>0.01089886342219268</v>
+      </c>
+      <c r="J11">
+        <v>0.007292401912282354</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>3.088773666666667</v>
+      </c>
+      <c r="N11">
+        <v>9.266321</v>
+      </c>
+      <c r="O11">
+        <v>0.2469014751758839</v>
+      </c>
+      <c r="P11">
+        <v>0.2805396031389193</v>
+      </c>
+      <c r="Q11">
+        <v>0.06385576239783333</v>
+      </c>
+      <c r="R11">
+        <v>0.383134574387</v>
+      </c>
+      <c r="S11">
+        <v>0.002690945456679855</v>
+      </c>
+      <c r="T11">
+        <v>0.002045807538401188</v>
       </c>
     </row>
   </sheetData>
